--- a/Tests/Test2/test2_2_df_load_0_145.xlsx
+++ b/Tests/Test2/test2_2_df_load_0_145.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2318902998089407</v>
+        <v>0.3172456784300238</v>
       </c>
       <c r="C3" t="n">
         <v>0.1000000000000001</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05774025396560935</v>
+        <v>0.142777302274058</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.9328505978944</v>
+        <v>27699.97393753249</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05774025396560935</v>
+        <v>0.142777302274058</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05774025396560935</v>
+        <v>0.1453151483076917</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6640684664158581</v>
+        <v>0.9085527138900228</v>
       </c>
       <c r="C4" t="n">
         <v>0.2000000000000002</v>
@@ -561,22 +561,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1515323239548545</v>
+        <v>0.3773651591531577</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>118.1669691482963</v>
+        <v>25467.84289454461</v>
       </c>
       <c r="H4" t="n">
-        <v>2.937183829487822e-17</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1515323239548545</v>
+        <v>0.3773651591531577</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1515323239548547</v>
+        <v>0.3824408512204252</v>
       </c>
     </row>
     <row r="5">
@@ -584,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.178508816593818</v>
+        <v>1.612479687011228</v>
       </c>
       <c r="C5" t="n">
         <v>0.2999999999999998</v>
@@ -593,22 +593,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2601315869868873</v>
+        <v>0.6496806951487615</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>114.3141834861794</v>
+        <v>24669.80595487738</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2601315869868873</v>
+        <v>0.6496806951487615</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2601315869868873</v>
+        <v>0.6572942332496626</v>
       </c>
     </row>
     <row r="6">
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>1.878742208272705</v>
+        <v>2.570565111872569</v>
       </c>
       <c r="C6" t="n">
         <v>0.3999999999999999</v>
@@ -625,22 +625,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4021735974890869</v>
+        <v>1.00713931247731</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>110.8628984781837</v>
+        <v>23953.85092378118</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4021735974890869</v>
+        <v>1.00713931247731</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4021735974890869</v>
+        <v>1.017290696611845</v>
       </c>
     </row>
     <row r="7">
@@ -648,7 +648,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>2.579190532495733</v>
+        <v>3.529140855936731</v>
       </c>
       <c r="C7" t="n">
         <v>0.5</v>
@@ -657,22 +657,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.544254295849232</v>
+        <v>1.364762186738805</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.2935413793532</v>
+        <v>23629.50245810439</v>
       </c>
       <c r="H7" t="n">
-        <v>3.59587026821373e-16</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5442542958492324</v>
+        <v>1.364762186738805</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5442542958492352</v>
+        <v>1.377451416906974</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>3.47956564710772</v>
+        <v>4.761136151596828</v>
       </c>
       <c r="C8" t="n">
         <v>0.6000000000000001</v>
@@ -689,22 +689,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7223218164793896</v>
+        <v>1.813980610784937</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>107.5181437314153</v>
+        <v>23261.20344213756</v>
       </c>
       <c r="H8" t="n">
-        <v>7.034716142939601e-16</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7223218164793903</v>
+        <v>1.813980610784937</v>
       </c>
       <c r="J8" t="n">
-        <v>0.722321816479396</v>
+        <v>1.82920768698674</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +712,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>4.379940761719768</v>
+        <v>5.993131447256927</v>
       </c>
       <c r="C9" t="n">
         <v>0.7000000000000002</v>
@@ -721,22 +721,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9003893371095582</v>
+        <v>2.26319903483107</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>106.472675521127</v>
+        <v>23044.32531710425</v>
       </c>
       <c r="H9" t="n">
-        <v>2.344897609418695e-16</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9003893371095584</v>
+        <v>2.26319903483107</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9003893371095603</v>
+        <v>2.280963957066506</v>
       </c>
     </row>
     <row r="10">
@@ -744,7 +744,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>5.398452875953736</v>
+        <v>7.387186038713506</v>
       </c>
       <c r="C10" t="n">
         <v>0.7999999999999998</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.099721517671672</v>
+        <v>2.766707322969025</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105.5177842609632</v>
+        <v>22847.44579968758</v>
       </c>
       <c r="H10" t="n">
-        <v>8.195344403105764e-16</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.099721517671673</v>
+        <v>2.766707322969025</v>
       </c>
       <c r="J10" t="n">
-        <v>1.09972151767168</v>
+        <v>2.787010091238094</v>
       </c>
     </row>
     <row r="11">
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>6.499003074622917</v>
+        <v>8.893167335452159</v>
       </c>
       <c r="C11" t="n">
         <v>0.8999999999999999</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.313820553432125</v>
+        <v>3.307711057376473</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>104.713232243987</v>
+        <v>22680.5447596013</v>
       </c>
       <c r="H11" t="n">
-        <v>1.101572166817277e-16</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.313820553432125</v>
+        <v>3.307711057376473</v>
       </c>
       <c r="J11" t="n">
-        <v>1.313820553432126</v>
+        <v>3.330551671679177</v>
       </c>
     </row>
     <row r="12">
@@ -808,31 +808,31 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>7.596701422404404</v>
+        <v>10.15998111994025</v>
       </c>
       <c r="C12" t="n">
-        <v>1.00031656691443</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0003165669144304584</v>
+        <v>0.01696539111628597</v>
       </c>
       <c r="E12" t="n">
-        <v>1.527456906739102</v>
+        <v>3.774786042937429</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000189940148658275</v>
+        <v>0.008482695558142987</v>
       </c>
       <c r="G12" t="n">
-        <v>104.1579216898677</v>
+        <v>22690.98981528297</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001796932575184401</v>
+        <v>0.08078320235545827</v>
       </c>
       <c r="I12" t="n">
-        <v>1.529443779462944</v>
+        <v>3.86405194085103</v>
       </c>
       <c r="J12" t="n">
-        <v>1.54381924006442</v>
+        <v>4.299891616056962</v>
       </c>
     </row>
     <row r="13">
@@ -840,31 +840,31 @@
         <v>55.00000000000001</v>
       </c>
       <c r="B13" t="n">
-        <v>7.596700203997032</v>
+        <v>10.15998111994025</v>
       </c>
       <c r="C13" t="n">
-        <v>1.000316566812899</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1003165668128966</v>
+        <v>0.1169653911162859</v>
       </c>
       <c r="E13" t="n">
-        <v>1.527456687409529</v>
+        <v>3.774786042937429</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06018994008773794</v>
+        <v>0.05848269555814297</v>
       </c>
       <c r="G13" t="n">
-        <v>104.1541482408616</v>
+        <v>22690.98981528295</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5694281319987945</v>
+        <v>0.5569478943554579</v>
       </c>
       <c r="I13" t="n">
-        <v>2.157074759496062</v>
+        <v>4.39021663285103</v>
       </c>
       <c r="J13" t="n">
-        <v>6.712499815486418</v>
+        <v>7.242921657954208</v>
       </c>
     </row>
     <row r="14">
@@ -872,31 +872,31 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>7.596696593126279</v>
+        <v>10.15998111994025</v>
       </c>
       <c r="C14" t="n">
-        <v>1.00031656661044</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2003165666104369</v>
+        <v>0.2169653911162861</v>
       </c>
       <c r="E14" t="n">
-        <v>1.527456037420401</v>
+        <v>3.774786042937428</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1201899399662621</v>
+        <v>0.108482695558143</v>
       </c>
       <c r="G14" t="n">
-        <v>104.1503456842101</v>
+        <v>22690.98981528296</v>
       </c>
       <c r="H14" t="n">
-        <v>1.137059330849645</v>
+        <v>1.03311258635546</v>
       </c>
       <c r="I14" t="n">
-        <v>2.784705308236308</v>
+        <v>4.916381324851032</v>
       </c>
       <c r="J14" t="n">
-        <v>11.88117995503347</v>
+        <v>10.18595169985147</v>
       </c>
     </row>
     <row r="15">
@@ -904,31 +904,31 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>7.596700241049828</v>
+        <v>10.15998111994025</v>
       </c>
       <c r="C15" t="n">
-        <v>1.000316566914421</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3003165669144303</v>
+        <v>0.3169653911162858</v>
       </c>
       <c r="E15" t="n">
-        <v>1.527456694095276</v>
+        <v>3.774786042937427</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1801899401486582</v>
+        <v>0.1584826955581429</v>
       </c>
       <c r="G15" t="n">
-        <v>104.1466325706993</v>
+        <v>22690.98981528295</v>
       </c>
       <c r="H15" t="n">
-        <v>1.704690532574891</v>
+        <v>1.509277278355457</v>
       </c>
       <c r="I15" t="n">
-        <v>3.412337166818826</v>
+        <v>5.442546016851026</v>
       </c>
       <c r="J15" t="n">
-        <v>17.04986142741796</v>
+        <v>13.12898174174869</v>
       </c>
     </row>
     <row r="16">
@@ -936,31 +936,31 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>7.596689020446261</v>
+        <v>10.15998111994025</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000316594687867</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4003165946878792</v>
+        <v>0.4169653911162859</v>
       </c>
       <c r="E16" t="n">
-        <v>1.527454678830386</v>
+        <v>3.774786042937427</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2401899568127275</v>
+        <v>0.208482695558143</v>
       </c>
       <c r="G16" t="n">
-        <v>104.1427416948996</v>
+        <v>22690.98981528296</v>
       </c>
       <c r="H16" t="n">
-        <v>2.272321838411721</v>
+        <v>1.985441970355458</v>
       </c>
       <c r="I16" t="n">
-        <v>4.039966474054834</v>
+        <v>5.968710708851028</v>
       </c>
       <c r="J16" t="n">
-        <v>22.21854118134861</v>
+        <v>16.07201178364595</v>
       </c>
     </row>
     <row r="17">
@@ -968,31 +968,31 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>7.596695973275127</v>
+        <v>10.15998111994025</v>
       </c>
       <c r="C17" t="n">
-        <v>1.00031656650955</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5003165665095102</v>
+        <v>0.5169653911162859</v>
       </c>
       <c r="E17" t="n">
-        <v>1.527455925831051</v>
+        <v>3.774786042937428</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3001899399057061</v>
+        <v>0.258482695558143</v>
       </c>
       <c r="G17" t="n">
-        <v>104.139065074139</v>
+        <v>22690.98981528296</v>
       </c>
       <c r="H17" t="n">
-        <v>2.839952930276926</v>
+        <v>2.461606662355464</v>
       </c>
       <c r="I17" t="n">
-        <v>4.667598796013683</v>
+        <v>6.494875400851035</v>
       </c>
       <c r="J17" t="n">
-        <v>27.38722223822909</v>
+        <v>19.01504182554323</v>
       </c>
     </row>
     <row r="18">
@@ -1000,31 +1000,31 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>7.596700203995549</v>
+        <v>10.15998111994024</v>
       </c>
       <c r="C18" t="n">
-        <v>1.000316566812884</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6003165668128962</v>
+        <v>0.6169653911162861</v>
       </c>
       <c r="E18" t="n">
-        <v>1.52745668740926</v>
+        <v>3.774786042937425</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3601899400877377</v>
+        <v>0.3084826955581431</v>
       </c>
       <c r="G18" t="n">
-        <v>104.1353599212485</v>
+        <v>22690.98981528294</v>
       </c>
       <c r="H18" t="n">
-        <v>3.40758413199956</v>
+        <v>2.93777135435546</v>
       </c>
       <c r="I18" t="n">
-        <v>5.295230759496558</v>
+        <v>7.021040092851028</v>
       </c>
       <c r="J18" t="n">
-        <v>32.55590381549304</v>
+        <v>21.95807186744046</v>
       </c>
     </row>
     <row r="19">
@@ -1032,31 +1032,31 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>7.596700832318138</v>
+        <v>10.15998111994025</v>
       </c>
       <c r="C19" t="n">
-        <v>1.000316566914413</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D19" t="n">
-        <v>0.70031656691443</v>
+        <v>0.7169653911162863</v>
       </c>
       <c r="E19" t="n">
-        <v>1.527456800523571</v>
+        <v>3.774786042937428</v>
       </c>
       <c r="F19" t="n">
-        <v>0.420189940148658</v>
+        <v>0.3584826955581432</v>
       </c>
       <c r="G19" t="n">
-        <v>104.1316107973928</v>
+        <v>22690.98981528296</v>
       </c>
       <c r="H19" t="n">
-        <v>3.975215332574585</v>
+        <v>3.413936046355465</v>
       </c>
       <c r="I19" t="n">
-        <v>5.922862073246813</v>
+        <v>7.547204784851036</v>
       </c>
       <c r="J19" t="n">
-        <v>37.7245847338435</v>
+        <v>24.90110190933774</v>
       </c>
     </row>
     <row r="20">
@@ -1064,31 +1064,31 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>7.596695352465845</v>
+        <v>10.15998111994025</v>
       </c>
       <c r="C20" t="n">
-        <v>1.000314888413956</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8003165868338389</v>
+        <v>0.8169653911162856</v>
       </c>
       <c r="E20" t="n">
-        <v>1.527455545590085</v>
+        <v>3.774786042937428</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4801899521003033</v>
+        <v>0.4084826955581428</v>
       </c>
       <c r="G20" t="n">
-        <v>104.1277716721605</v>
+        <v>22690.98981528294</v>
       </c>
       <c r="H20" t="n">
-        <v>4.542846616539969</v>
+        <v>3.890100738355453</v>
       </c>
       <c r="I20" t="n">
-        <v>6.550492114230357</v>
+        <v>8.073369476851024</v>
       </c>
       <c r="J20" t="n">
-        <v>42.89326504655011</v>
+        <v>27.84413195123491</v>
       </c>
     </row>
     <row r="21">
@@ -1096,31 +1096,31 @@
         <v>95</v>
       </c>
       <c r="B21" t="n">
-        <v>7.59669810801791</v>
+        <v>10.15998111994026</v>
       </c>
       <c r="C21" t="n">
-        <v>1.000315805885243</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9003165741033037</v>
+        <v>0.9169653911162857</v>
       </c>
       <c r="E21" t="n">
-        <v>1.527456188384863</v>
+        <v>3.774786042937429</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5401899444619822</v>
+        <v>0.4584826955581429</v>
       </c>
       <c r="G21" t="n">
-        <v>104.1240572646219</v>
+        <v>22690.98981528295</v>
       </c>
       <c r="H21" t="n">
-        <v>5.110477761895606</v>
+        <v>4.366265430355451</v>
       </c>
       <c r="I21" t="n">
-        <v>7.17812389474245</v>
+        <v>8.599534168851022</v>
       </c>
       <c r="J21" t="n">
-        <v>48.06194598990729</v>
+        <v>30.78716199313214</v>
       </c>
     </row>
     <row r="22">
@@ -1128,319 +1128,31 @@
         <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>7.596695844063827</v>
+        <v>10.15998111994024</v>
       </c>
       <c r="C22" t="n">
-        <v>1.000316567478593</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="D22" t="n">
-        <v>1.000316567478593</v>
+        <v>1.016965391116286</v>
       </c>
       <c r="E22" t="n">
-        <v>1.527455902728064</v>
+        <v>3.774786042937426</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6001899404871559</v>
+        <v>0.5084826955581431</v>
       </c>
       <c r="G22" t="n">
-        <v>104.120280757291</v>
+        <v>22690.98981528295</v>
       </c>
       <c r="H22" t="n">
-        <v>5.678108933902396</v>
+        <v>4.842430122355464</v>
       </c>
       <c r="I22" t="n">
-        <v>7.805754777117616</v>
+        <v>9.125698860851033</v>
       </c>
       <c r="J22" t="n">
-        <v>53.23062624833678</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7.596697836550937</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.00031656681293</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.100316566812895</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.527456261269237</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.6601899400877371</v>
-      </c>
-      <c r="G23" t="n">
-        <v>104.1202932072226</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6.245756878816905</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8.433403080173878</v>
-      </c>
-      <c r="J23" t="n">
-        <v>58.39945811070912</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7.596695354659819</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.000316566408784</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.200316566408784</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.527455814464173</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.7201899398452707</v>
-      </c>
-      <c r="G24" t="n">
-        <v>104.1202626894696</v>
-      </c>
-      <c r="H24" t="n">
-        <v>6.813404876522986</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9.06105063083243</v>
-      </c>
-      <c r="J24" t="n">
-        <v>63.56828964301632</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7.596698460129437</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.00031656691445</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.30031656691445</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1.527456373529611</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.78018994014867</v>
-      </c>
-      <c r="G25" t="n">
-        <v>104.1203008748537</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7.381052879393065</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9.688699193071345</v>
-      </c>
-      <c r="J25" t="n">
-        <v>68.73712222821585</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7.596700119400691</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.000315941583024</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.400316568374959</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.527456572145408</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8401899410249754</v>
-      </c>
-      <c r="G26" t="n">
-        <v>104.1203146573914</v>
-      </c>
-      <c r="H26" t="n">
-        <v>7.948700885890729</v>
-      </c>
-      <c r="I26" t="n">
-        <v>10.31634739906111</v>
-      </c>
-      <c r="J26" t="n">
-        <v>73.90595448618696</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B27" t="n">
-        <v>7.596701422403003</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.000316566914431</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.500316566914431</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.527456906738849</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9001899401486585</v>
-      </c>
-      <c r="G27" t="n">
-        <v>104.1203372214912</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8.516348879390748</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10.94399572627826</v>
-      </c>
-      <c r="J27" t="n">
-        <v>79.07478676140424</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B28" t="n">
-        <v>7.596701422404715</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.000316566914429</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.600316566914429</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.527456906739157</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.9601899401486573</v>
-      </c>
-      <c r="G28" t="n">
-        <v>104.120337221512</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9.083996879391037</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11.57164372627885</v>
-      </c>
-      <c r="J28" t="n">
-        <v>84.24361876140715</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7.596698430171529</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.000316566812892</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.700316566812892</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.527456368120938</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.020189940087735</v>
-      </c>
-      <c r="G29" t="n">
-        <v>104.1203004908547</v>
-      </c>
-      <c r="H29" t="n">
-        <v>9.651644878815933</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12.19929118702461</v>
-      </c>
-      <c r="J29" t="n">
-        <v>89.41245021755206</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B30" t="n">
-        <v>7.596694080206074</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.000316566686246</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.800316566686262</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.527455585106892</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.080189940011757</v>
-      </c>
-      <c r="G30" t="n">
-        <v>104.1202470969753</v>
-      </c>
-      <c r="H30" t="n">
-        <v>10.21929287728085</v>
-      </c>
-      <c r="I30" t="n">
-        <v>12.8269384023995</v>
-      </c>
-      <c r="J30" t="n">
-        <v>94.58128142064628</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B31" t="n">
-        <v>7.596701422405104</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.000316566914416</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.900316566914416</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.527456906739225</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.14018994014865</v>
-      </c>
-      <c r="G31" t="n">
-        <v>104.1203372215139</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10.78694087939009</v>
-      </c>
-      <c r="I31" t="n">
-        <v>13.45458772627796</v>
-      </c>
-      <c r="J31" t="n">
-        <v>99.75011476139868</v>
+        <v>33.73019203502946</v>
       </c>
     </row>
   </sheetData>
